--- a/TestCases_Application.xlsx
+++ b/TestCases_Application.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guinh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC1B15B2-13DD-4CD0-9AB5-EBF372D2C38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E0445A-851A-4E64-9601-DA8F785905B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Bugs" sheetId="3" r:id="rId2"/>
-    <sheet name="Plan2" sheetId="2" state="hidden" r:id="rId3"/>
-    <sheet name="Test Coverage" sheetId="4" r:id="rId4"/>
+    <sheet name="Test Report" sheetId="6" r:id="rId1"/>
+    <sheet name="Test Cases" sheetId="1" r:id="rId2"/>
+    <sheet name="Bugs" sheetId="3" r:id="rId3"/>
+    <sheet name="Plan2" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Test Coverage" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="116">
   <si>
     <t>ID:</t>
   </si>
@@ -141,20 +142,6 @@
         <charset val="1"/>
       </rPr>
       <t>1.0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Date: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>30/08/2021</t>
     </r>
   </si>
   <si>
@@ -500,19 +487,6 @@
 Priority: High</t>
   </si>
   <si>
-    <t>Summary: Wrong column name on Billing Details table
-Description:
-1 - Login on the application
-2 - On the Invoice List table click on any entry of the table for Invoice Details
-3 - On Invoice Details page check the name of the first column on Billing Details table
-Actual:
-The name of the column is Deposit Nowt
-Expected Result:
-The name of the column should be Deposit Now according to documentation
-Severity: Major
-Priority: High</t>
-  </si>
-  <si>
     <t>Summary: Money amount not displaying decimals on Billing Details table
 Description:
 1 - Login on the application
@@ -525,12 +499,111 @@
 Severity: Moderate
 Priority: Medium</t>
   </si>
+  <si>
+    <t>Test report</t>
+  </si>
+  <si>
+    <t>Total Test Cases</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Not Executed</t>
+  </si>
+  <si>
+    <t>Test Execution Summary</t>
+  </si>
+  <si>
+    <t>Bug Summary</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Bug ID</t>
+  </si>
+  <si>
+    <t>Detected by</t>
+  </si>
+  <si>
+    <t>Message for empty fields when try to login is wrong</t>
+  </si>
+  <si>
+    <t>Duplicated Invoice number on the Invoice List Table</t>
+  </si>
+  <si>
+    <t>Wrong column name on Billing Details table</t>
+  </si>
+  <si>
+    <t>Money amount not displaying decimals on Billing Details table</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Summary: Wrong column name on Billing Details table
+Description:
+1 - Login on the application
+2 - On the Invoice List table click on any entry of the table for Invoice Details
+3 - On Invoice Details page check the name of the first column on Billing Details table
+Actual:
+The name of the column is Deposit Nowt
+Expected Result:
+The name of the column should be Deposit Now according to documentation
+Severity: Moderate
+Priority: Medium</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Manual Test</t>
+  </si>
+  <si>
+    <t>Exploratory Test</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Date: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>09-01-2024</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -675,6 +748,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -807,7 +887,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -938,12 +1018,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="26">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFDFF1F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -983,6 +1176,66 @@
           <bgColor rgb="FF808080"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFDFF1F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1159,6 +1412,277 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Total Test Cases</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Test Report'!$C$11:$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Passed</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Failed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Blocked</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Not Executed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Test Report'!$C$12:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7ACA-4D93-A5AE-1B78808CDFCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1444,6 +1968,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent3"/>
@@ -1481,7 +2045,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1538,7 +2102,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1589,6 +2153,525 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1984,6 +3067,108 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1896862</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1" descr="e-Core">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C613B97-725E-46F2-B7CB-30224D28FE01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="752475" y="314325"/>
+          <a:ext cx="1724051" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>196623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>187098</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C91CEC9-E99C-14EF-7C56-24D87921948C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2049,7 +3234,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2230,7 +3415,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2700,17 +3885,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1FE4FE93-16AB-4A02-9C1D-E3A3D690B733}" name="Tabela13" displayName="Tabela13" ref="B11:F12" totalsRowShown="0">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{15EB515D-5170-4C09-B4B3-9937FC548182}" name="Total Test Cases" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{79AB1543-5F9A-422A-BB9F-3FC0B1BA1E65}" name="Passed" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{E4F15002-5ED8-4F1C-9F54-5E6059C042E1}" name="Failed" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{A8A83100-142A-4B9C-80A7-DCF61FD0BBC8}" name="Blocked" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{6A8DE347-FD28-4ABB-AD7E-4F16C3ED4063}" name="Not Executed" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{07AC80FA-F222-433B-9CE8-A715B5C533C0}" name="Tabela136" displayName="Tabela136" ref="B15:H19" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="B15:H19" xr:uid="{07AC80FA-F222-433B-9CE8-A715B5C533C0}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{BD972D90-16C7-4199-B3C9-5BB945CDBCFB}" name="Bug ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{1B8B4892-A7BB-4EF5-914D-54065446D929}" name="Title" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{8B070176-1358-4AD4-B3CE-864F351D68A5}" name="Status" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{A8F71B1D-DFF0-4B30-901F-B23DB8CBF568}" name="Severity" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{9301D2FD-06A4-44D5-B930-B1879240C1B1}" name="Priority" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{07BB570E-FF18-49E9-A09E-FB317EB0C71A}" name="Detected by" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{86017360-1E3C-4488-A55E-75A532A76F19}" name="Test Case ID" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="B10:I18" totalsRowShown="0">
   <autoFilter ref="B10:I18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID:" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type:" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{A68D4322-59A3-4299-A502-AEFECA0506C0}" name="Test Case" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description:" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Test Step:" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Result:" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Priority:" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Comments:" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID:" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type:" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{A68D4322-59A3-4299-A502-AEFECA0506C0}" name="Test Case" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description:" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Test Step:" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Result:" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Priority:" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Comments:" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3012,11 +4226,283 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED92F5A0-0C7B-49BE-9432-DF1F2B2B59DD}">
+  <dimension ref="B1:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="2:9" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="2:9" ht="13.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="2:9" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="2:9" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="2:9" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <v>9</v>
+      </c>
+      <c r="C12" s="18">
+        <v>8</v>
+      </c>
+      <c r="D12" s="19">
+        <v>1</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="48">
+        <v>1</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="46">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="49">
+        <v>2</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="49">
+        <v>3</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="50">
+        <v>4</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="B2:C5"/>
+    <mergeCell ref="D2:F5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B16" location="Bugs!A2" display="Bugs!A2" xr:uid="{18E69221-2725-4D94-B4DF-EFAA2E13D47B}"/>
+    <hyperlink ref="B17" location="Bugs!A3" display="Bugs!A3" xr:uid="{690E83CC-88C2-4C23-B6AF-E1D72334BBA5}"/>
+    <hyperlink ref="B18" location="Bugs!A4" display="Bugs!A4" xr:uid="{976D963B-0803-42E5-8E2B-2B7A77CBE424}"/>
+    <hyperlink ref="B19" location="Bugs!A5" display="Bugs!A5" xr:uid="{6EE0C284-F01E-4843-8746-884A86844CCB}"/>
+  </hyperlinks>
+  <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3042,7 +4528,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="14" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="I2" s="14"/>
     </row>
@@ -3054,7 +4540,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="15"/>
     </row>
@@ -3066,7 +4552,7 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I4" s="14"/>
     </row>
@@ -3088,7 +4574,7 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -3102,7 +4588,7 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -3133,7 +4619,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>20</v>
@@ -3157,22 +4643,22 @@
         <v>1</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>31</v>
-      </c>
       <c r="F11" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="19"/>
       <c r="J11"/>
@@ -3182,22 +4668,22 @@
         <v>2</v>
       </c>
       <c r="C12" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>36</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="22"/>
       <c r="J12"/>
@@ -3207,22 +4693,22 @@
         <v>3</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>41</v>
-      </c>
       <c r="F13" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13"/>
@@ -3232,22 +4718,22 @@
         <v>4</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>43</v>
-      </c>
       <c r="F14" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14"/>
@@ -3257,25 +4743,25 @@
         <v>5</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J15"/>
     </row>
@@ -3284,22 +4770,22 @@
         <v>6</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>48</v>
-      </c>
       <c r="F16" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G16" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16"/>
@@ -3309,22 +4795,22 @@
         <v>7</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>52</v>
-      </c>
       <c r="F17" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I17" s="19"/>
       <c r="J17"/>
@@ -3334,22 +4820,22 @@
         <v>15</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I18" s="21"/>
       <c r="J18"/>
@@ -3359,22 +4845,22 @@
         <v>16</v>
       </c>
       <c r="C19" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="E19" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="F19" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>66</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I19" s="19"/>
     </row>
@@ -3393,19 +4879,19 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="G11:G1048576">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="BLOCK">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="BLOCK">
       <formula>NOT(ISERROR(SEARCH("BLOCK",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="RETEST">
+    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="RETEST">
       <formula>NOT(ISERROR(SEARCH("RETEST",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="11" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3436,13 +4922,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D94897-7383-48A2-AC42-3FA64804FFCB}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="277.89999999999998" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3464,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="278.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3472,7 +4958,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="277.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
@@ -3480,7 +4966,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="277.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
@@ -3488,7 +4974,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3501,7 +4987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:B9"/>
   <sheetViews>
@@ -3547,12 +5033,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF639DA5-CBAD-442D-9916-04159DE97453}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3565,22 +5051,22 @@
   <sheetData>
     <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -3588,7 +5074,7 @@
     </row>
     <row r="6" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -3596,37 +5082,37 @@
     </row>
     <row r="8" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -3634,56 +5120,52 @@
     </row>
     <row r="16" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
     </row>
-    <row r="18" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19">
         <v>11</v>
       </c>
-      <c r="D19">
-        <f>C19/C20</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
     </row>
-    <row r="24" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A24" s="40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/TestCases_Application.xlsx
+++ b/TestCases_Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guinh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E0445A-851A-4E64-9601-DA8F785905B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC68FF4A-F169-4F94-ADD7-00C845C3D68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -603,7 +603,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -755,6 +755,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -887,7 +895,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -909,36 +917,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -976,11 +954,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1018,7 +993,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1039,6 +1014,40 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1046,7 +1055,134 @@
   </cellStyles>
   <dxfs count="26">
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80D8A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD3D3D3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80D8F8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCFFFF"/>
+          <bgColor rgb="FFDFF1F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="dotted">
+          <color auto="1"/>
+        </left>
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+        <top style="dotted">
+          <color auto="1"/>
+        </top>
+        <bottom style="dotted">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="dotted">
+          <color auto="1"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1138,134 +1274,7 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8080"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF80D8A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD3D3D3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF80D8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF808080"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCFFFF"/>
-          <bgColor rgb="FFDFF1F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-        <top style="dotted">
-          <color auto="1"/>
-        </top>
-        <bottom style="dotted">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <left style="dotted">
-          <color auto="1"/>
-        </left>
-        <right style="dotted">
-          <color auto="1"/>
-        </right>
-      </border>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1502,6 +1511,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-764E-42C2-BD87-B4B22FE0F614}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1517,6 +1531,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-764E-42C2-BD87-B4B22FE0F614}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1532,6 +1551,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-764E-42C2-BD87-B4B22FE0F614}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1547,6 +1571,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-764E-42C2-BD87-B4B22FE0F614}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1697,6 +1726,39 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Test Coverage </a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3425,8 +3487,8 @@
       <xdr:rowOff>175533</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5404757" cy="334579"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CaixaDeTexto 2">
@@ -3588,7 +3650,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CaixaDeTexto 2">
@@ -3666,8 +3728,8 @@
       <xdr:rowOff>176891</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2774125" cy="666751"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CaixaDeTexto 3">
@@ -3772,7 +3834,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CaixaDeTexto 3">
@@ -3887,27 +3949,27 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1FE4FE93-16AB-4A02-9C1D-E3A3D690B733}" name="Tabela13" displayName="Tabela13" ref="B11:F12" totalsRowShown="0">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{15EB515D-5170-4C09-B4B3-9937FC548182}" name="Total Test Cases" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{79AB1543-5F9A-422A-BB9F-3FC0B1BA1E65}" name="Passed" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{E4F15002-5ED8-4F1C-9F54-5E6059C042E1}" name="Failed" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{A8A83100-142A-4B9C-80A7-DCF61FD0BBC8}" name="Blocked" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{6A8DE347-FD28-4ABB-AD7E-4F16C3ED4063}" name="Not Executed" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{15EB515D-5170-4C09-B4B3-9937FC548182}" name="Total Test Cases" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{79AB1543-5F9A-422A-BB9F-3FC0B1BA1E65}" name="Passed" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{E4F15002-5ED8-4F1C-9F54-5E6059C042E1}" name="Failed" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{A8A83100-142A-4B9C-80A7-DCF61FD0BBC8}" name="Blocked" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{6A8DE347-FD28-4ABB-AD7E-4F16C3ED4063}" name="Not Executed" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{07AC80FA-F222-433B-9CE8-A715B5C533C0}" name="Tabela136" displayName="Tabela136" ref="B15:H19" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{07AC80FA-F222-433B-9CE8-A715B5C533C0}" name="Tabela136" displayName="Tabela136" ref="B15:H19" totalsRowShown="0" dataDxfId="20">
   <autoFilter ref="B15:H19" xr:uid="{07AC80FA-F222-433B-9CE8-A715B5C533C0}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{BD972D90-16C7-4199-B3C9-5BB945CDBCFB}" name="Bug ID" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{1B8B4892-A7BB-4EF5-914D-54065446D929}" name="Title" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{8B070176-1358-4AD4-B3CE-864F351D68A5}" name="Status" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{A8F71B1D-DFF0-4B30-901F-B23DB8CBF568}" name="Severity" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{9301D2FD-06A4-44D5-B930-B1879240C1B1}" name="Priority" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{07BB570E-FF18-49E9-A09E-FB317EB0C71A}" name="Detected by" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{86017360-1E3C-4488-A55E-75A532A76F19}" name="Test Case ID" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{BD972D90-16C7-4199-B3C9-5BB945CDBCFB}" name="Bug ID" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{1B8B4892-A7BB-4EF5-914D-54065446D929}" name="Title" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{8B070176-1358-4AD4-B3CE-864F351D68A5}" name="Status" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{A8F71B1D-DFF0-4B30-901F-B23DB8CBF568}" name="Severity" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{9301D2FD-06A4-44D5-B930-B1879240C1B1}" name="Priority" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{07BB570E-FF18-49E9-A09E-FB317EB0C71A}" name="Detected by" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{86017360-1E3C-4488-A55E-75A532A76F19}" name="Test Case ID" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3917,14 +3979,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="B10:I18" totalsRowShown="0">
   <autoFilter ref="B10:I18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID:" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type:" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{A68D4322-59A3-4299-A502-AEFECA0506C0}" name="Test Case" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description:" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Test Step:" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Result:" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Priority:" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Comments:" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID:" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Type:" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{A68D4322-59A3-4299-A502-AEFECA0506C0}" name="Test Case" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description:" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Test Step:" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Result:" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Priority:" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Comments:" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4227,10 +4289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED92F5A0-0C7B-49BE-9432-DF1F2B2B59DD}">
-  <dimension ref="B1:I19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4244,231 +4306,234 @@
     <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="2:9" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="2:9" ht="13.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="2:9" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="2:9" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+    </row>
+    <row r="4" spans="1:9" ht="13.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="2:9" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>96</v>
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>91</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="13" t="s">
         <v>95</v>
       </c>
       <c r="G11"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>9</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="8">
         <v>8</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="9">
         <v>1</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="9">
         <v>0</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>103</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="33" t="s">
         <v>102</v>
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="48">
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="37">
         <v>1</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="35">
         <v>5</v>
       </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="49">
+      <c r="B17" s="38">
         <v>2</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="46" t="s">
+      <c r="H17" s="35" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="49">
+      <c r="B18" s="38">
         <v>3</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="H18" s="46" t="s">
+      <c r="H18" s="35" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="50">
+      <c r="B19" s="39">
         <v>4</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="H19" s="46" t="s">
+      <c r="H19" s="35" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4512,99 +4577,99 @@
     <col min="4" max="4" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="37.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="14" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" customWidth="1"/>
     <col min="9" max="9" width="26.140625" style="3" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="14"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="15" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="15"/>
+      <c r="I3" s="47"/>
     </row>
     <row r="4" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="46"/>
     </row>
     <row r="5" spans="2:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="14"/>
+      <c r="I5" s="46"/>
     </row>
     <row r="6" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
     </row>
     <row r="7" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
@@ -4618,22 +4683,22 @@
       <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J10"/>
@@ -4642,125 +4707,125 @@
       <c r="B11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="19"/>
+      <c r="I11" s="9"/>
       <c r="J11"/>
     </row>
     <row r="12" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="22"/>
+      <c r="I12" s="12"/>
       <c r="J12"/>
     </row>
     <row r="13" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="19"/>
+      <c r="I13" s="9"/>
       <c r="J13"/>
     </row>
     <row r="14" spans="2:10" ht="146.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="21"/>
+      <c r="I14" s="11"/>
       <c r="J14"/>
     </row>
     <row r="15" spans="2:10" ht="145.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="I15" s="19" t="s">
         <v>78</v>
       </c>
       <c r="J15"/>
@@ -4769,100 +4834,100 @@
       <c r="B16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="11"/>
       <c r="J16"/>
     </row>
     <row r="17" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="19"/>
+      <c r="I17" s="9"/>
       <c r="J17"/>
     </row>
     <row r="18" spans="2:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="21"/>
+      <c r="I18" s="11"/>
       <c r="J18"/>
     </row>
     <row r="19" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="19"/>
+      <c r="I19" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4879,19 +4944,19 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="G11:G1048576">
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="BLOCK">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="BLOCK">
       <formula>NOT(ISERROR(SEARCH("BLOCK",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="RETEST">
+    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="RETEST">
       <formula>NOT(ISERROR(SEARCH("RETEST",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="0" priority="11" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4942,14 +5007,14 @@
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
     </row>
     <row r="2" spans="1:3" ht="275.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="18" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4957,7 +5022,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="32" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4965,7 +5030,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="32" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4973,7 +5038,7 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="32" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5050,89 +5115,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="23" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="24" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="31" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="24" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
+      <c r="A5" s="16"/>
     </row>
     <row r="6" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="28" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="16"/>
     </row>
     <row r="8" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="22" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="25" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="26" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="27" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="27" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
+      <c r="A15" s="17"/>
     </row>
     <row r="16" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="22" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="21"/>
     </row>
     <row r="18" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="23" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
+      <c r="A19" s="50"/>
       <c r="B19" t="s">
         <v>86</v>
       </c>
@@ -5141,7 +5206,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
+      <c r="A20" s="50"/>
       <c r="B20" t="s">
         <v>87</v>
       </c>
@@ -5150,21 +5215,21 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
+      <c r="A21" s="50"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
+      <c r="A22" s="50"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
+      <c r="A23" s="50"/>
     </row>
     <row r="24" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="29" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="30" t="s">
         <v>84</v>
       </c>
     </row>
